--- a/.gitbook/assets/DD credits.xlsx
+++ b/.gitbook/assets/DD credits.xlsx
@@ -4,27 +4,135 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
-    <sheet name="ME+DS(Eng)" sheetId="1" r:id="rId1"/>
-    <sheet name="ME+CS(Eng)" sheetId="2" r:id="rId2"/>
-    <sheet name="ME+AE" sheetId="4" r:id="rId3"/>
-    <sheet name="ME+IOE" sheetId="7" r:id="rId4"/>
-    <sheet name="ECE+ME" sheetId="3" r:id="rId5"/>
-    <sheet name="ECE+AE" sheetId="5" r:id="rId6"/>
-    <sheet name="ECE+IOE" sheetId="6" r:id="rId7"/>
+    <sheet name="Notice&amp;Materials" sheetId="10" r:id="rId1"/>
+    <sheet name="ME+DS(Eng)" sheetId="1" r:id="rId2"/>
+    <sheet name="ME+CS(Eng)" sheetId="2" r:id="rId3"/>
+    <sheet name="ME+AE" sheetId="4" r:id="rId4"/>
+    <sheet name="ME+IOE" sheetId="7" r:id="rId5"/>
+    <sheet name="ME+CE" sheetId="8" r:id="rId6"/>
+    <sheet name="ME+EE" sheetId="9" r:id="rId7"/>
+    <sheet name="ECE+ME" sheetId="3" r:id="rId8"/>
+    <sheet name="ECE+AE" sheetId="5" r:id="rId9"/>
+    <sheet name="ECE+IOE" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="185">
+  <si>
+    <r>
+      <t>Notice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1.This checksheet is only for reference and may include mistakes and subject to change.
+2.This checksheet only includes some choices offered by the Michigen Engineering. I am looking for the checksheet of more choices and similar work in the LSA.
+3.This checksheet does not include prerequisites for some choices. Some prerequisites is omitted if completed before the course is availble and some are question marks for not found. For prerequisites, please refer to the materials listed below.
+4. More credits may not indicate heavier workload. It depends more on the difficulty of the course itself.
+5. This checksheet only offers the choice of the least credits. More courses and credits can be selected and substituded for personal development.
+5. Hope this checksheet will help you and wish you a successful application!
+Li Mingrui 2023.8.15</t>
+    </r>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>UM-SJTU JI Checksheet</t>
+  </si>
+  <si>
+    <t>https://www.ji.sjtu.edu.cn/cn/academics/undergraduate-program/academic-planning-rules/</t>
+  </si>
+  <si>
+    <t>UM-SJTU JI Equivalency</t>
+  </si>
+  <si>
+    <t>https://app.ji.sjtu.edu.cn/equivalence/university/index/2</t>
+  </si>
+  <si>
+    <t>Michigen Engineering Equivalency</t>
+  </si>
+  <si>
+    <t>https://apps.engin.umich.edu/equivalencies/colleges/show/216</t>
+  </si>
+  <si>
+    <t>IOE Program Guide</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1NgCbvWIVE4NbU7TpF0ABiA8yI4Tb8_jZOftySfoh8Ow/</t>
+  </si>
+  <si>
+    <t>EE Major Program Guide</t>
+  </si>
+  <si>
+    <t>https://ece.engin.umich.edu/academics/undergraduate/prospective-undergrad/electrical-engineering/</t>
+  </si>
+  <si>
+    <t>CE Program Guide</t>
+  </si>
+  <si>
+    <t>https://ece.engin.umich.edu/academics/undergraduate/prospective-undergrad/computer-engineering/</t>
+  </si>
+  <si>
+    <t>CS-Eng Program Guide</t>
+  </si>
+  <si>
+    <t>https://cse.engin.umich.edu/academics/undergraduate/programs/computer-science-eng/</t>
+  </si>
+  <si>
+    <t>DS-Eng program guide</t>
+  </si>
+  <si>
+    <t>https://cse.engin.umich.edu/academics/undergraduate/programs/data-science-eng/</t>
+  </si>
+  <si>
+    <t>ME Handbook</t>
+  </si>
+  <si>
+    <t>https://me.engin.umich.edu/academics/undergrad/handbook/bachelors/</t>
+  </si>
+  <si>
+    <t>AE Degree Requirements</t>
+  </si>
+  <si>
+    <t>https://aero.engin.umich.edu/undergraduate/degree-requirements/</t>
+  </si>
+  <si>
+    <t>Michigen Engineering Courses</t>
+  </si>
+  <si>
+    <t>https://bulletin.engin.umich.edu/courses/</t>
+  </si>
+  <si>
+    <t>LSA Course Catalogue</t>
+  </si>
+  <si>
+    <t>https://webapps.lsa.umich.edu/CrsMaint/Public/CB_PublicBulletin.aspx</t>
+  </si>
   <si>
     <t>Course</t>
   </si>
   <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Corequisites</t>
+  </si>
+  <si>
     <t>Credit</t>
   </si>
   <si>
@@ -67,27 +175,54 @@
     <t>ECE2150J</t>
   </si>
   <si>
+    <t>MATH1160J/MATH1560J/MATH1860J, ENGR1010J</t>
+  </si>
+  <si>
+    <t>PHYS2401J/PHYS2600J</t>
+  </si>
+  <si>
     <t>ME2110J</t>
   </si>
   <si>
+    <t>PHY1401J/160, MATH1160J/MATH1560J/MATH1860J</t>
+  </si>
+  <si>
     <t>ME2350J</t>
   </si>
   <si>
+    <t>CHEM2100J, MATH1160J/MATH1560J/MATH1860J</t>
+  </si>
+  <si>
     <t>ME2400J</t>
   </si>
   <si>
+    <t>PHY1401J/160, MATH2160J/MATH2560J/MATH2860J</t>
+  </si>
+  <si>
+    <t>or VvMATH2560J/MATH2860J</t>
+  </si>
+  <si>
     <t>ME2500J</t>
   </si>
   <si>
+    <t>MATH1160J/MATH1560J/MATH1860J, ENGR1010J,ME0801J</t>
+  </si>
+  <si>
     <t>ME3200J</t>
   </si>
   <si>
+    <t>ME2350J, ME2400J, MATH2160J/MATH2560J/MATH2860J</t>
+  </si>
+  <si>
     <t>ME3350J</t>
   </si>
   <si>
     <t>ME3500J</t>
   </si>
   <si>
+    <t>ME2110J, ME2400J, ME2500J</t>
+  </si>
+  <si>
     <t>ME3600J</t>
   </si>
   <si>
@@ -97,12 +232,26 @@
     <t>ME3950J</t>
   </si>
   <si>
+    <t>PHYS2401J/PHYS2600J,PHYS2410J,ME2110J,
+ME2350J,ME2400J</t>
+  </si>
+  <si>
+    <t>p/c ME3200J, 
+ME3820J</t>
+  </si>
+  <si>
     <t>ME4500J</t>
   </si>
   <si>
+    <t>ME3500J, ME3600J, ME3950J</t>
+  </si>
+  <si>
     <t>ME4950J</t>
   </si>
   <si>
+    <t>ME3500J,ME3600J</t>
+  </si>
+  <si>
     <t>Academic Writing</t>
   </si>
   <si>
@@ -118,21 +267,36 @@
     <t>EECS280</t>
   </si>
   <si>
+    <t>101/151</t>
+  </si>
+  <si>
     <t>EECS281</t>
   </si>
   <si>
+    <t>EECS203+EECS280</t>
+  </si>
+  <si>
     <t>STATS412</t>
   </si>
   <si>
+    <t>MATH2550J/2850J</t>
+  </si>
+  <si>
     <t>STATS413</t>
   </si>
   <si>
+    <t>STATS412+MATH2140J</t>
+  </si>
+  <si>
     <t>EECS484/485</t>
   </si>
   <si>
     <t>EECS445/STATS415</t>
   </si>
   <si>
+    <t>EECS281+MATH2140J(EECS445)/STATS412+MATH2140J(STATS415)</t>
+  </si>
+  <si>
     <t>Application Elective</t>
   </si>
   <si>
@@ -148,16 +312,22 @@
     <t>TC300&amp;TC496</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>Special Topics(ENGR4960J)</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
+    <t>ENGR 101/151</t>
+  </si>
+  <si>
     <t>EECS370</t>
   </si>
   <si>
-    <t>STATS...</t>
+    <t>STATS...(Advanced Math)</t>
   </si>
   <si>
     <t>EECS376</t>
@@ -172,60 +342,182 @@
     <t>Upper level</t>
   </si>
   <si>
+    <t>UM Program Core</t>
+  </si>
+  <si>
+    <t>AEROSP 201</t>
+  </si>
+  <si>
+    <t>AEROSP 215</t>
+  </si>
+  <si>
+    <t>p/c AEROSP201</t>
+  </si>
+  <si>
+    <t>AEROSP 225</t>
+  </si>
+  <si>
+    <t>AEROSP 315</t>
+  </si>
+  <si>
+    <t>AEROSP215</t>
+  </si>
+  <si>
+    <t>AEROSP 325</t>
+  </si>
+  <si>
+    <t>AEROSP225</t>
+  </si>
+  <si>
+    <t>AEROSP 335</t>
+  </si>
+  <si>
+    <t>AEROSP 341/343</t>
+  </si>
+  <si>
+    <t>ME2400J+AEROSP 201</t>
+  </si>
+  <si>
+    <t>AEROSP 350</t>
+  </si>
+  <si>
+    <t>p/c AEROSP201+AEROSP 215</t>
+  </si>
+  <si>
+    <t>AEROSP 470</t>
+  </si>
+  <si>
+    <t>related technical core</t>
+  </si>
+  <si>
+    <t>AEROSP 200</t>
+  </si>
+  <si>
+    <t>AEROSP 205</t>
+  </si>
+  <si>
+    <t>AEROSP 305</t>
+  </si>
+  <si>
+    <t>AEROSP 205, AEROSP 215, AEROSP 225</t>
+  </si>
+  <si>
+    <t>AEROSP 405</t>
+  </si>
+  <si>
+    <t>AEROSP 305. p/cAEROSP 315 and AEROSP 325</t>
+  </si>
+  <si>
+    <t>AEROSP 481/483</t>
+  </si>
+  <si>
+    <t>AEROSP 325. p/c AEROSP 315, AEROSP 335 and AEROSP 348 (Advisory)(481)/
+AEROSP 343. p/c AEROSP 315, 325, and 335 (Advisory)(483)</t>
+  </si>
+  <si>
     <t>High-level Math</t>
   </si>
   <si>
-    <t>UM Program Core</t>
-  </si>
-  <si>
-    <t>AEROSP 201</t>
-  </si>
-  <si>
-    <t>AEROSP 215</t>
-  </si>
-  <si>
-    <t>AEROSP 225</t>
-  </si>
-  <si>
-    <t>AEROSP 315</t>
-  </si>
-  <si>
-    <t>AEROSP 325</t>
-  </si>
-  <si>
-    <t>AEROSP 335</t>
-  </si>
-  <si>
-    <t>AEROSP 341/343</t>
-  </si>
-  <si>
-    <t>AEROSP 350</t>
-  </si>
-  <si>
-    <t>AEROSP 470</t>
-  </si>
-  <si>
-    <t>related technical core</t>
-  </si>
-  <si>
-    <t>AEROSP 200</t>
-  </si>
-  <si>
-    <t>AEROSP 205</t>
-  </si>
-  <si>
-    <t>AEROSP 305</t>
-  </si>
-  <si>
-    <t>AEROSP 405</t>
-  </si>
-  <si>
-    <t>AEROSP 481/483</t>
+    <t>IOE201</t>
+  </si>
+  <si>
+    <t>IOE202</t>
+  </si>
+  <si>
+    <t>IOE265</t>
+  </si>
+  <si>
+    <t>IOE310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math 2140J, IOE 202 </t>
+  </si>
+  <si>
+    <t>IOE316</t>
+  </si>
+  <si>
+    <t>IOE 265, Math 2140J</t>
+  </si>
+  <si>
+    <t>IOE333</t>
+  </si>
+  <si>
+    <t>p/c IOE 265</t>
+  </si>
+  <si>
+    <t>IOE366</t>
+  </si>
+  <si>
+    <t>IOE373</t>
+  </si>
+  <si>
+    <t>TCHNCLCM 380</t>
+  </si>
+  <si>
+    <t>IOE474</t>
+  </si>
+  <si>
+    <t>IOE 316, IOE 366, IOE 373</t>
+  </si>
+  <si>
+    <t>IOE424/481/499</t>
+  </si>
+  <si>
+    <t>IOE 310 and IOE 316 and IOE 333 and IOE 366 and IOE 373 and TCHNCLCM 380(424,481)
+Senior standing, permission of advisor(499)</t>
   </si>
   <si>
     <t>Technical Electives</t>
   </si>
   <si>
+    <t>EECS216</t>
+  </si>
+  <si>
+    <t>EECS270</t>
+  </si>
+  <si>
+    <t>p/c 280</t>
+  </si>
+  <si>
+    <t>EECS301/MATH425/STATS412</t>
+  </si>
+  <si>
+    <t>p/c EECS 216(301)/?(425)/MATH2550J/2850J(412)</t>
+  </si>
+  <si>
+    <t>EECS496</t>
+  </si>
+  <si>
+    <t>UM Core Elective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Level &amp; EECS Electives </t>
+  </si>
+  <si>
+    <t>EECS200</t>
+  </si>
+  <si>
+    <t>p/c ECE2150J</t>
+  </si>
+  <si>
+    <t>EECS230</t>
+  </si>
+  <si>
+    <t>EECS300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EECS 200, at least 3 of 4 (215, 216, 230, 280), Co-requisite EECS: 4th of 4 (215, 216, 230, 280) </t>
+  </si>
+  <si>
+    <t>EECS301</t>
+  </si>
+  <si>
+    <t>p/c EECS216</t>
+  </si>
+  <si>
+    <t>Upper Level &amp; MDE</t>
+  </si>
+  <si>
     <t>Discrete Math</t>
   </si>
   <si>
@@ -302,6 +594,9 @@
   </si>
   <si>
     <t>Specialization&amp;Technical Elective</t>
+  </si>
+  <si>
+    <t>UM Program Core(except IOE265)</t>
   </si>
   <si>
     <t>None-IOE Elective</t>
@@ -317,7 +612,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +632,32 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -481,6 +802,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -791,10 +1118,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,137 +1130,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,6 +1268,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1262,55 +1610,204 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="27" style="6" customWidth="1"/>
+    <col min="2" max="2" width="86.75" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="201" customHeight="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.ji.sjtu.edu.cn/cn/academics/undergraduate-program/academic-planning-rules/"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://app.ji.sjtu.edu.cn/equivalence/university/index/2"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://apps.engin.umich.edu/equivalencies/colleges/show/216"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://docs.google.com/presentation/d/1NgCbvWIVE4NbU7TpF0ABiA8yI4Tb8_jZOftySfoh8Ow/"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://ece.engin.umich.edu/academics/undergraduate/prospective-undergrad/electrical-engineering/"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://ece.engin.umich.edu/academics/undergraduate/prospective-undergrad/computer-engineering/"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://cse.engin.umich.edu/academics/undergraduate/programs/computer-science-eng/"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://cse.engin.umich.edu/academics/undergraduate/programs/data-science-eng/"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://me.engin.umich.edu/academics/undergrad/handbook/bachelors/"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://aero.engin.umich.edu/undergraduate/degree-requirements/"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://bulletin.engin.umich.edu/courses/" tooltip="https://bulletin.engin.umich.edu/courses/"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://webapps.lsa.umich.edu/CrsMaint/Public/CB_PublicBulletin.aspx"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.125" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -1327,7 +1824,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -1335,7 +1832,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
@@ -1349,7 +1846,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -1363,7 +1860,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -1375,57 +1872,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:2">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -1433,7 +1965,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -1441,31 +1973,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -1473,7 +2005,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -1481,7 +2013,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -1489,7 +2021,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -1497,165 +2029,79 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="B23" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="14.25" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="B25" s="1">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="14.25" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="B26" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="2">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B29" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="2">
-        <v>186</v>
-      </c>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1666,383 +2112,495 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="56.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
+    <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="2">
-        <v>190</v>
+        <v>91</v>
+      </c>
+      <c r="D41" s="2">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2054,423 +2612,461 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="60.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
+    <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+    <row r="37" s="1" customFormat="1"/>
+    <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>191</v>
+        <v>91</v>
+      </c>
+      <c r="D41" s="2">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2482,314 +3078,528 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="57.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
+    <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="2">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2">
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" ht="36" customHeight="1" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="2">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="2">
+        <v>191</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B41:C41"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2798,9 +3608,1436 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="72.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C37:D37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="65.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="85.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -2812,33 +5049,33 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>39</v>
@@ -2846,7 +5083,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -2863,7 +5100,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -2871,7 +5108,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
@@ -2885,7 +5122,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -2899,7 +5136,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -2913,7 +5150,7 @@
     </row>
     <row r="8" ht="14.25" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <v>16</v>
@@ -2921,7 +5158,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -2935,7 +5172,7 @@
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1">
         <v>28</v>
@@ -2956,7 +5193,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
@@ -2964,7 +5201,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
@@ -2972,7 +5209,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -2980,7 +5217,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -2988,7 +5225,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -2996,7 +5233,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -3004,7 +5241,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -3012,7 +5249,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -3020,7 +5257,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -3028,7 +5265,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -3036,7 +5273,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -3044,7 +5281,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2">
         <v>7</v>
@@ -3052,7 +5289,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
@@ -3060,7 +5297,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="B24" s="1">
         <v>45</v>
@@ -3068,7 +5305,7 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -3076,7 +5313,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
@@ -3084,7 +5321,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -3092,7 +5329,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
@@ -3100,7 +5337,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -3108,7 +5345,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
@@ -3116,7 +5353,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B31" s="2">
         <v>4</v>
@@ -3124,7 +5361,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
@@ -3132,7 +5369,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="B33" s="2">
         <v>4</v>
@@ -3140,7 +5377,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="B34" s="2">
         <v>4</v>
@@ -3148,7 +5385,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="B35" s="2">
         <v>4</v>
@@ -3156,7 +5393,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="B36" s="2">
         <v>4</v>
@@ -3164,7 +5401,7 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="B37" s="1">
         <v>12</v>
@@ -3172,7 +5409,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2">
         <v>198</v>
@@ -3184,13 +5421,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3201,33 +5438,33 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>39</v>
@@ -3235,7 +5472,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -3252,7 +5489,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -3260,7 +5497,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
@@ -3274,7 +5511,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -3288,7 +5525,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -3302,7 +5539,7 @@
     </row>
     <row r="8" ht="14.25" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <v>16</v>
@@ -3310,7 +5547,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -3324,7 +5561,7 @@
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1">
         <v>28</v>
@@ -3345,7 +5582,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
@@ -3353,7 +5590,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
@@ -3361,7 +5598,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -3369,7 +5606,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -3377,7 +5614,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -3385,7 +5622,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -3393,7 +5630,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -3401,7 +5638,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -3409,7 +5646,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -3417,7 +5654,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -3425,7 +5662,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -3433,7 +5670,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2">
         <v>7</v>
@@ -3441,7 +5678,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
@@ -3449,7 +5686,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="B24" s="1">
         <v>47</v>
@@ -3457,7 +5694,7 @@
     </row>
     <row r="25" s="2" customFormat="1" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -3465,7 +5702,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
@@ -3473,7 +5710,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
@@ -3481,7 +5718,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
@@ -3489,7 +5726,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -3497,7 +5734,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
@@ -3505,7 +5742,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
@@ -3513,7 +5750,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B32" s="2">
         <v>3</v>
@@ -3521,7 +5758,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B33" s="2">
         <v>3</v>
@@ -3529,7 +5766,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
@@ -3537,7 +5774,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
@@ -3545,7 +5782,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="B36" s="2">
         <v>3</v>
@@ -3553,7 +5790,7 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="B37" s="2">
         <v>4</v>
@@ -3561,7 +5798,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B38" s="2">
         <v>4</v>
@@ -3569,7 +5806,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B39" s="2">
         <v>4</v>
@@ -3577,316 +5814,11 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2">
         <v>188</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/.gitbook/assets/DD credits.xlsx
+++ b/.gitbook/assets/DD credits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="736" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Notice&amp;Materials" sheetId="10" r:id="rId1"/>
@@ -14,18 +14,28 @@
     <sheet name="ME+IOE" sheetId="7" r:id="rId5"/>
     <sheet name="ME+CE" sheetId="8" r:id="rId6"/>
     <sheet name="ME+EE" sheetId="9" r:id="rId7"/>
-    <sheet name="ECE+ME" sheetId="3" r:id="rId8"/>
-    <sheet name="ECE+AE" sheetId="5" r:id="rId9"/>
-    <sheet name="ECE+IOE" sheetId="6" r:id="rId10"/>
+    <sheet name="ME+BME" sheetId="12" r:id="rId8"/>
+    <sheet name="ECE+ME" sheetId="3" r:id="rId9"/>
+    <sheet name="ECE+AE" sheetId="5" r:id="rId10"/>
+    <sheet name="ECE+IOE" sheetId="6" r:id="rId11"/>
+    <sheet name="ECE+BME" sheetId="13" r:id="rId12"/>
+    <sheet name="versions" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="218">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Notice</t>
     </r>
     <r>
@@ -124,6 +134,18 @@
     <t>https://webapps.lsa.umich.edu/CrsMaint/Public/CB_PublicBulletin.aspx</t>
   </si>
   <si>
+    <t>JI courses</t>
+  </si>
+  <si>
+    <t>https://www.ji.sjtu.edu.cn/academics/courses/present-course-offerings/</t>
+  </si>
+  <si>
+    <t>BME Materials</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14QF3MqCgi1CiClNHht8Rti5KURZKWNJl/view</t>
+  </si>
+  <si>
     <t>Course</t>
   </si>
   <si>
@@ -134,6 +156,9 @@
   </si>
   <si>
     <t>Credit</t>
+  </si>
+  <si>
+    <t>Credits Distribution</t>
   </si>
   <si>
     <t>FA</t>
@@ -312,10 +337,16 @@
     <t>TC300&amp;TC496</t>
   </si>
   <si>
+    <t>--/TC 300</t>
+  </si>
+  <si>
+    <t>--/MDE</t>
+  </si>
+  <si>
+    <t>Special Topics(ENGR4960J)</t>
+  </si>
+  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>Special Topics(ENGR4960J)</t>
   </si>
   <si>
     <t>Total</t>
@@ -418,6 +449,9 @@
     <t>High-level Math</t>
   </si>
   <si>
+    <t>*The courses deleted from the program subject of JI can only be transferred back from UM according to Equivalency up to now.</t>
+  </si>
+  <si>
     <t>IOE201</t>
   </si>
   <si>
@@ -518,6 +552,42 @@
     <t>Upper Level &amp; MDE</t>
   </si>
   <si>
+    <t>UM Requirements</t>
+  </si>
+  <si>
+    <t>BiomedE 221</t>
+  </si>
+  <si>
+    <t>BiomedE 231</t>
+  </si>
+  <si>
+    <t>BiomedE 241</t>
+  </si>
+  <si>
+    <t>BiomedE 350</t>
+  </si>
+  <si>
+    <t>BiomedE 418</t>
+  </si>
+  <si>
+    <t>BiomedE 419</t>
+  </si>
+  <si>
+    <t>BiomedE 450/460/451+452</t>
+  </si>
+  <si>
+    <t>BiomedE 458</t>
+  </si>
+  <si>
+    <t>Biology 172</t>
+  </si>
+  <si>
+    <t>MatScie 220/250</t>
+  </si>
+  <si>
+    <t>Engineering Expertise</t>
+  </si>
+  <si>
     <t>Discrete Math</t>
   </si>
   <si>
@@ -600,6 +670,45 @@
   </si>
   <si>
     <t>None-IOE Elective</t>
+  </si>
+  <si>
+    <t>8(?)</t>
+  </si>
+  <si>
+    <t>Profession in Practive</t>
+  </si>
+  <si>
+    <t>3(?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>23.8.16</t>
+  </si>
+  <si>
+    <t>beta 0.1.0</t>
+  </si>
+  <si>
+    <t>Released. Covering ME+DS(Eng)/CS(Eng)/IOE/CE/EE and ECE+ME/AE/IOE partly with prerequisites.</t>
+  </si>
+  <si>
+    <t>23.8.18</t>
+  </si>
+  <si>
+    <t>beta 0.2.0</t>
+  </si>
+  <si>
+    <t>ME+AE, ME+BME, ECE+BME added.</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1113,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1121,7 +1239,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1151,7 +1269,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1169,28 +1287,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1199,10 +1317,10 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,7 +1378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1269,6 +1387,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1279,7 +1400,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1289,6 +1422,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1610,30 +1749,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27" style="6" customWidth="1"/>
-    <col min="2" max="2" width="86.75" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="27" style="2" customWidth="1"/>
+    <col min="2" max="2" width="86.75" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="201" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1641,96 +1780,112 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="13" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1750,6 +1905,8 @@
     <hyperlink ref="B12" r:id="rId10" display="https://aero.engin.umich.edu/undergraduate/degree-requirements/"/>
     <hyperlink ref="B13" r:id="rId11" display="https://bulletin.engin.umich.edu/courses/" tooltip="https://bulletin.engin.umich.edu/courses/"/>
     <hyperlink ref="B14" r:id="rId12" display="https://webapps.lsa.umich.edu/CrsMaint/Public/CB_PublicBulletin.aspx"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://www.ji.sjtu.edu.cn/academics/courses/present-course-offerings/"/>
+    <hyperlink ref="B16" r:id="rId14" display="https://drive.google.com/file/d/14QF3MqCgi1CiClNHht8Rti5KURZKWNJl/view"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1757,6 +1914,411 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="2">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H37"/>
@@ -1773,33 +2335,33 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>43</v>
@@ -1807,7 +2369,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -1824,7 +2386,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -1832,7 +2394,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
@@ -1846,7 +2408,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -1860,7 +2422,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -1874,7 +2436,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2">
         <v>4</v>
@@ -1882,7 +2444,7 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>16</v>
@@ -1896,7 +2458,7 @@
     </row>
     <row r="10" ht="14.25" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -1914,7 +2476,7 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1">
         <v>28</v>
@@ -1935,7 +2497,7 @@
     </row>
     <row r="12" ht="14.25" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1">
         <v>50</v>
@@ -1949,7 +2511,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -1957,7 +2519,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -1965,7 +2527,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -1973,7 +2535,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -1981,7 +2543,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -1989,7 +2551,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -1997,7 +2559,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -2005,7 +2567,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -2013,7 +2575,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -2021,7 +2583,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -2029,7 +2591,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2">
         <v>7</v>
@@ -2037,7 +2599,7 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
@@ -2051,7 +2613,7 @@
     </row>
     <row r="25" s="2" customFormat="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B25" s="1">
         <v>29</v>
@@ -2065,7 +2627,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B26" s="1">
         <v>12</v>
@@ -2079,7 +2641,7 @@
     </row>
     <row r="27" ht="14.25" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
@@ -2093,7 +2655,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B29" s="2">
         <v>189</v>
@@ -2102,6 +2664,475 @@
     <row r="37" s="1" customFormat="1" spans="1:2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="29.125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="1">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" s="2">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="126.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2112,498 +3143,536 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="56.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="25.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:10">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:4">
+      <c r="A10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A25" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="E26" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:4">
+      <c r="A27" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="7">
         <v>8</v>
       </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2">
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:4">
+      <c r="A38" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10">
         <v>5</v>
       </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="1">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="1">
-        <v>28</v>
-      </c>
-      <c r="E25" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="F25" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I25" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="2">
+    <row r="40" spans="1:4">
+      <c r="A40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="2">
+    <row r="42" spans="1:4">
+      <c r="A42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="7">
         <v>186</v>
       </c>
     </row>
+    <row r="45" spans="3:4">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2612,10 +3681,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2626,118 +3695,119 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:10">
+    <row r="1" ht="14.25" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>4</v>
       </c>
       <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2">
         <v>8</v>
       </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
       <c r="H6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
       <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2747,7 +3817,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1">
         <v>50</v>
@@ -2755,22 +3825,22 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -2778,10 +3848,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2">
         <v>4</v>
@@ -2789,10 +3859,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
@@ -2800,13 +3870,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2">
         <v>4</v>
@@ -2814,10 +3884,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -2825,10 +3895,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -2836,10 +3906,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
@@ -2847,10 +3917,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2">
         <v>4</v>
@@ -2858,10 +3928,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2">
         <v>4</v>
@@ -2869,10 +3939,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
@@ -2880,13 +3950,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -2894,10 +3964,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
@@ -2905,55 +3975,55 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
       </c>
-      <c r="E24" s="1">
-        <v>4</v>
-      </c>
       <c r="F24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:9">
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1">
         <v>28</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>6.5</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>12.5</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>1.5</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>7.5</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:4">
+    <row r="26" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1">
         <v>48</v>
@@ -2961,7 +4031,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2">
         <v>4</v>
@@ -2969,10 +4039,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
@@ -2980,10 +4050,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
@@ -2991,10 +4061,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2">
         <v>4</v>
@@ -3002,10 +4072,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -3013,10 +4083,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -3024,10 +4094,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
@@ -3035,10 +4105,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -3046,7 +4116,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D35" s="2">
         <v>4</v>
@@ -3054,16 +4124,16 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D36" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1"/>
+    <row r="37" s="1" customFormat="1" ht="14.25"/>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D41" s="2">
         <v>187</v>
@@ -3078,10 +4148,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3094,41 +4164,41 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>39</v>
@@ -3136,7 +4206,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2">
         <v>12</v>
@@ -3153,7 +4223,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -3161,7 +4231,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2">
         <v>8</v>
@@ -3175,7 +4245,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
@@ -3189,7 +4259,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -3203,7 +4273,7 @@
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3213,30 +4283,30 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="D10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -3244,35 +4314,35 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2">
         <v>4</v>
@@ -3280,165 +4350,156 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="2">
-        <v>4</v>
+    <row r="19" s="1" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="1">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="1">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="1">
-        <v>28</v>
-      </c>
-      <c r="E25" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="F25" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I25" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="1">
-        <v>47</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
@@ -3446,7 +4507,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D29" s="2">
         <v>3</v>
@@ -3454,10 +4518,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D30" s="2">
         <v>3</v>
@@ -3465,32 +4529,25 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D31" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
@@ -3498,107 +4555,68 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D34" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D35" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" ht="36" customHeight="1" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="2">
+    <row r="37" ht="14.25" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D39" s="2">
-        <v>4</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" ht="36" customHeight="1" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="2">
-        <v>191</v>
-      </c>
+      <c r="A40" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B41:C41"/>
+  <mergeCells count="2">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A40:D40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3611,7 +4629,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E36" sqref="E36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3620,54 +4638,54 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="72.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="16380" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>39</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -3684,7 +4702,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -3692,7 +4710,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
@@ -3706,7 +4724,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -3720,7 +4738,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -3734,7 +4752,7 @@
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>16</v>
@@ -3744,7 +4762,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1">
         <v>50</v>
@@ -3752,171 +4770,171 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1">
         <v>8</v>
@@ -3928,9 +4946,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:9">
+    <row r="25" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1">
         <v>28</v>
@@ -3948,9 +4966,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:2">
+    <row r="26" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1">
         <v>33</v>
@@ -3958,7 +4976,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
@@ -3966,7 +4984,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
@@ -3974,7 +4992,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -3982,51 +5000,51 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B32" s="2">
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B33" s="2">
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B34" s="2">
         <v>4</v>
@@ -4034,41 +5052,41 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B36" s="2">
         <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="34" customHeight="1" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B37" s="2">
         <v>4</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B38" s="1">
         <v>12</v>
@@ -4076,13 +5094,13 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B40" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" ht="14.25" spans="1:2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
@@ -4101,7 +5119,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4110,54 +5128,54 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="65.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="16381" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>39</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -4174,7 +5192,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -4182,7 +5200,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
@@ -4196,7 +5214,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -4210,7 +5228,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -4224,7 +5242,7 @@
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>14</v>
@@ -4234,7 +5252,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1">
         <v>50</v>
@@ -4242,171 +5260,171 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1">
         <v>8</v>
@@ -4418,9 +5436,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:9">
+    <row r="25" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1">
         <v>28</v>
@@ -4438,9 +5456,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:2">
+    <row r="26" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1">
         <v>28</v>
@@ -4448,7 +5466,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -4456,92 +5474,92 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B29" s="2">
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" ht="14.25" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B36" s="1">
         <v>13</v>
@@ -4553,13 +5571,13 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B40" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" ht="14.25" spans="1:2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
@@ -4589,49 +5607,49 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>39</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -4648,7 +5666,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -4656,7 +5674,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
@@ -4670,7 +5688,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -4684,7 +5702,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -4698,7 +5716,7 @@
     </row>
     <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>14</v>
@@ -4708,7 +5726,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1">
         <v>50</v>
@@ -4716,171 +5734,171 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1">
         <v>8</v>
@@ -4894,7 +5912,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1">
         <v>28</v>
@@ -4914,7 +5932,7 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B26" s="1">
         <v>28</v>
@@ -4922,29 +5940,29 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B29" s="2">
         <v>4</v>
@@ -4952,7 +5970,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
@@ -4960,51 +5978,51 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B35" s="1">
         <v>23</v>
@@ -5016,13 +6034,13 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B40" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" ht="14.25" spans="1:2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
@@ -5033,6 +6051,463 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="62.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H41"/>
@@ -5049,33 +6524,33 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>39</v>
@@ -5083,7 +6558,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -5100,7 +6575,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -5108,7 +6583,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
@@ -5122,7 +6597,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -5136,7 +6611,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -5150,7 +6625,7 @@
     </row>
     <row r="8" ht="14.25" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>16</v>
@@ -5158,7 +6633,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -5172,7 +6647,7 @@
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1">
         <v>28</v>
@@ -5193,7 +6668,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
@@ -5201,7 +6676,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
@@ -5209,7 +6684,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -5217,7 +6692,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -5225,7 +6700,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -5233,7 +6708,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -5241,7 +6716,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -5249,7 +6724,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -5257,7 +6732,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -5265,7 +6740,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -5273,7 +6748,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -5281,7 +6756,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2">
         <v>7</v>
@@ -5289,7 +6764,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
@@ -5297,7 +6772,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B24" s="1">
         <v>45</v>
@@ -5305,7 +6780,7 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -5313,7 +6788,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
@@ -5321,7 +6796,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -5329,7 +6804,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
@@ -5337,7 +6812,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -5345,7 +6820,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
@@ -5353,7 +6828,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="B31" s="2">
         <v>4</v>
@@ -5361,7 +6836,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
@@ -5369,7 +6844,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="B33" s="2">
         <v>4</v>
@@ -5377,7 +6852,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B34" s="2">
         <v>4</v>
@@ -5385,7 +6860,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="B35" s="2">
         <v>4</v>
@@ -5393,7 +6868,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="B36" s="2">
         <v>4</v>
@@ -5401,7 +6876,7 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="14.25" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B37" s="1">
         <v>12</v>
@@ -5409,415 +6884,10 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B41" s="2">
         <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="1">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="2">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
